--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,21 @@
   </si>
   <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -92,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,39 +121,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,7 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,36 +147,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,323 +475,185 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43690</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>43774</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3">
+        <v>190</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="10">
+        <f>PRODUCT(D4,E4)</f>
+        <v>853.1</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(F4,F5)</f>
+        <v>1071.8</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1071.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3">
+        <v>90</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="10">
+        <f>PRODUCT(D5,E5)</f>
+        <v>218.70000000000002</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
+        <v>390</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="10">
+        <f>PRODUCT(D6,E6)</f>
+        <v>898</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>1141</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>190</v>
       </c>
-      <c r="D5" s="3">
-        <v>190</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
-        <v>853.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3">
-        <v>90</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D7" s="3">
+        <f>SUM(C7,-C5)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F6" s="20">
-        <f>PRODUCT(D6,E6)</f>
-        <v>218.70000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43690</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
+      <c r="F7" s="10">
+        <f>PRODUCT(D7,E7)</f>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43690</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4908</v>
-      </c>
-      <c r="D9" s="5">
-        <f>SUM(C9,-C10)</f>
-        <v>128</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="20">
-        <f>PRODUCT(D9,E9)</f>
-        <v>574.72</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43654</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4780</v>
-      </c>
-      <c r="D10" s="5">
-        <f>SUM(C10,-C11)</f>
-        <v>130</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="20">
-        <f>PRODUCT(D10,E10)</f>
-        <v>583.70000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43584</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4650</v>
-      </c>
-      <c r="D11" s="5">
-        <f>SUM(C11,-C12)</f>
-        <v>130</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="20">
-        <f>PRODUCT(D11,E11)</f>
-        <v>594.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43309</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4520</v>
-      </c>
-      <c r="D12" s="5">
-        <f>SUM(C12,-C13)</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="20">
-        <f>PRODUCT(D12,E12)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43103</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4320</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(G2:G7)</f>
+        <v>2212.8000000000002</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(H2:H7)</f>
+        <v>2212.8000000000002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,19 +638,70 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>590</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C6)</f>
+        <v>200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="10">
+        <f>PRODUCT(D8,E8)</f>
+        <v>898</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>1141</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>290</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C7)</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="10">
+        <f>PRODUCT(D9,E9)</f>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G10" s="11">
         <f>SUM(G2:G7)</f>
         <v>2212.8000000000002</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H10" s="11">
         <f>SUM(H2:H7)</f>
         <v>2212.8000000000002</v>
       </c>

--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="10">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>853.1</v>
       </c>
       <c r="G4" s="11">
@@ -580,7 +580,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="10">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="0"/>
         <v>218.70000000000002</v>
       </c>
       <c r="G5" s="11"/>
@@ -604,7 +604,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="10">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="0"/>
         <v>898</v>
       </c>
       <c r="G6" s="11">
@@ -631,7 +631,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="10">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="0"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G7" s="11"/>
@@ -655,7 +655,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="0"/>
         <v>898</v>
       </c>
       <c r="G8" s="11">
@@ -682,28 +682,79 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="0"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>44082</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>790</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(C10,-C8)</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="1">PRODUCT(D10,E10)</f>
+        <v>942</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>993</v>
+      </c>
+      <c r="H10" s="11">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>310</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C9)</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G2:G7)</f>
-        <v>2212.8000000000002</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H7)</f>
-        <v>2212.8000000000002</v>
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>4346.8</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>4299.8</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>390</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" ref="D6:D13" si="1">SUM(C6,-C4)</f>
         <v>200</v>
       </c>
       <c r="E6" s="5">
@@ -624,7 +624,7 @@
         <v>190</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E7" s="8">
@@ -648,7 +648,7 @@
         <v>590</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="E8" s="5">
@@ -675,7 +675,7 @@
         <v>290</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E9" s="8">
@@ -699,14 +699,14 @@
         <v>790</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="1">PRODUCT(D10,E10)</f>
+        <f t="shared" ref="F10:F11" si="2">PRODUCT(D10,E10)</f>
         <v>942</v>
       </c>
       <c r="G10" s="11">
@@ -726,35 +726,86 @@
         <v>310</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="4">
+        <v>44137</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>920</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="3">PRODUCT(D12,E12)</f>
+        <v>612.29999999999995</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>765.3</v>
+      </c>
+      <c r="H12" s="11">
+        <v>812.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>370</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>4346.8</v>
-      </c>
-      <c r="H12" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>4299.8</v>
+      <c r="G14" s="11">
+        <f>SUM(G2:G13)</f>
+        <v>5112.1000000000004</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H2:H13)</f>
+        <v>5112.1000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,19 +791,70 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>44209</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1070</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="4">SUM(C14,-C12)</f>
+        <v>150</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="5">PRODUCT(D14,E14)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>961.5</v>
+      </c>
+      <c r="H14" s="11">
+        <v>961.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>470</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G16" s="11">
         <f>SUM(G2:G13)</f>
         <v>5112.1000000000004</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H16" s="11">
         <f>SUM(H2:H13)</f>
         <v>5112.1000000000004</v>
       </c>

--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -842,19 +842,70 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>44333</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1250</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="6">SUM(C16,-C14)</f>
+        <v>180</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="7">PRODUCT(D16,E16)</f>
+        <v>847.8</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>1179.3</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1179.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>600</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="7"/>
+        <v>331.5</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <f>SUM(G2:G13)</f>
         <v>5112.1000000000004</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <f>SUM(H2:H13)</f>
         <v>5112.1000000000004</v>
       </c>

--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,19 +893,70 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1350</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="8">SUM(C18,-C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="9">PRODUCT(D18,E18)</f>
+        <v>471</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>496.5</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1179.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>610</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="E19" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="9"/>
+        <v>25.5</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="11">
         <f>SUM(G2:G13)</f>
         <v>5112.1000000000004</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H20" s="11">
         <f>SUM(H2:H13)</f>
         <v>5112.1000000000004</v>
       </c>

--- a/sputnik/personal/ee/311ee.xlsx
+++ b/sputnik/personal/ee/311ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,21 +944,72 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>44474</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1460</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="10">SUM(C20,-C18)</f>
+        <v>110</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="11">PRODUCT(D20,E20)</f>
+        <v>545.6</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>679.6</v>
+      </c>
+      <c r="H20" s="11">
+        <v>645.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>660</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="11"/>
+        <v>134</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
-        <f>SUM(G2:G13)</f>
-        <v>5112.1000000000004</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H2:H13)</f>
-        <v>5112.1000000000004</v>
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>8429</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>9077.8000000000011</v>
       </c>
     </row>
   </sheetData>
